--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3089.390005946159</v>
+        <v>3198.960002183914</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3166.5200009346</v>
@@ -2545,10 +2545,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3017.570002794266</v>
+        <v>3181.880002737045</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3708.01000523567</v>
@@ -2572,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3135.979996919632</v>
+        <v>3138.049996495247</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>265</v>
@@ -2597,10 +2597,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3085.920008301735</v>
+        <v>3501.820001363754</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3733.5500087738</v>
@@ -2639,10 +2639,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2956.389992713928</v>
+        <v>3402.010000944138</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3510.48000192642</v>
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3425.840001821518</v>
+        <v>3595.479996919632</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4065.49999928474</v>
@@ -2697,10 +2697,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3530.08000254631</v>
+        <v>3641.919994950294</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3862.50999557972</v>
@@ -2722,10 +2722,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3339.639998674393</v>
+        <v>3561.530002355576</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3872.35999846458</v>
@@ -2744,10 +2744,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3408.120003461838</v>
+        <v>3706.96000623703</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3805.40000414848</v>
@@ -2771,10 +2771,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3591.329999923706</v>
+        <v>3693.480007886887</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D12" s="0" t="n"/>
       <c r="E12" s="0" t="n"/>
@@ -2794,10 +2794,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3478.540006637573</v>
+        <v>3568.210003614426</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D13" s="0" t="n"/>
       <c r="E13" s="0" t="n"/>
@@ -2807,10 +2807,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3537.530005931854</v>
+        <v>3965.380005478859</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="D14" s="0" t="n"/>
       <c r="E14" s="0" t="n"/>
@@ -2820,10 +2820,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3450.810002088547</v>
+        <v>3593.819992542267</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="D15" s="0" t="n"/>
       <c r="E15" s="0" t="n"/>
@@ -2833,10 +2833,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3723.230002522469</v>
+        <v>3752.689997911453</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D16" s="0" t="n"/>
       <c r="E16" s="0" t="n"/>
@@ -2846,10 +2846,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>3746.440007686615</v>
+        <v>3385.990000009537</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D17" s="0" t="n"/>
       <c r="E17" s="0" t="n"/>
@@ -2859,10 +2859,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3627.600003957748</v>
+        <v>3493.520000934601</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D18" s="0" t="n"/>
       <c r="E18" s="0" t="n"/>
@@ -2872,10 +2872,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>3770.200008153915</v>
+        <v>3402.519996404648</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="D19" s="0" t="n"/>
       <c r="E19" s="0" t="n"/>
@@ -2885,10 +2885,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3834.000002622604</v>
+        <v>4051.260004997253</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D20" s="0" t="n"/>
       <c r="E20" s="0" t="n"/>
@@ -2898,10 +2898,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3690.369997620583</v>
+        <v>4171.670000195503</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="D21" s="0" t="n"/>
       <c r="E21" s="0" t="n"/>
@@ -2911,10 +2911,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>4013.369998693466</v>
+        <v>4046.370004892349</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D22" s="0" t="n"/>
       <c r="E22" s="0" t="n"/>
@@ -2924,10 +2924,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>4213.800009250641</v>
+        <v>3949.549993753433</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D23" s="0" t="n"/>
       <c r="E23" s="0" t="n"/>
@@ -2937,10 +2937,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>4447.079990148544</v>
+        <v>3984.410003662109</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D24" s="0" t="n"/>
       <c r="E24" s="0" t="n"/>
@@ -2950,10 +2950,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>4426.660000562668</v>
+        <v>3733.330006122589</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="D25" s="0" t="n"/>
       <c r="E25" s="0" t="n"/>
@@ -2963,10 +2963,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>4515.389997720718</v>
+        <v>4288.580010890961</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D26" s="0" t="n"/>
       <c r="E26" s="0" t="n"/>
@@ -2976,10 +2976,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>4370.810009002686</v>
+        <v>4452.490004777908</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D27" s="0" t="n"/>
       <c r="E27" s="0" t="n"/>
@@ -2989,10 +2989,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>4788.699995994568</v>
+        <v>4194.390007734299</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="D28" s="0" t="n"/>
       <c r="E28" s="0" t="n"/>
@@ -3002,10 +3002,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>4423.080007314682</v>
+        <v>4071.350001692772</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="D29" s="0" t="n"/>
       <c r="E29" s="0" t="n"/>
@@ -3015,10 +3015,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>4438.780003428459</v>
+        <v>3967.950006246567</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="D30" s="0" t="n"/>
       <c r="E30" s="0" t="n"/>
@@ -3028,10 +3028,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>4321.79999756813</v>
+        <v>4361.250000238419</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="D31" s="0" t="n"/>
       <c r="E31" s="0" t="n"/>
@@ -3041,10 +3041,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>4149.940007209778</v>
+        <v>4321.340007305145</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D32" s="0" t="n"/>
       <c r="E32" s="0" t="n"/>
@@ -3054,10 +3054,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>4143.409995794296</v>
+        <v>4275.980000972748</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D33" s="0" t="n"/>
       <c r="E33" s="0" t="n"/>
@@ -3067,10 +3067,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>4460.440006971359</v>
+        <v>4165.759999752045</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="D34" s="0" t="n"/>
       <c r="E34" s="0" t="n"/>
@@ -3080,10 +3080,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>3992.720001578331</v>
+        <v>4193.340010643005</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D35" s="0" t="n"/>
       <c r="E35" s="0" t="n"/>
@@ -3093,10 +3093,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>4055.6100025177</v>
+        <v>4229.810005903244</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="D36" s="0" t="n"/>
       <c r="E36" s="0" t="n"/>
@@ -3106,10 +3106,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>4045.160005092621</v>
+        <v>4153.750007152557</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="D37" s="0" t="n"/>
       <c r="E37" s="0" t="n"/>
@@ -3119,10 +3119,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>4352.310003519058</v>
+        <v>4580.950008034706</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="D38" s="0" t="n"/>
       <c r="E38" s="0" t="n"/>
@@ -3132,10 +3132,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>4430.150001049042</v>
+        <v>4436.929998636246</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D39" s="0" t="n"/>
       <c r="E39" s="0" t="n"/>
@@ -3145,10 +3145,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>4453.240007638931</v>
+        <v>4364.480010271072</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D40" s="0" t="n"/>
       <c r="E40" s="0" t="n"/>
@@ -3158,10 +3158,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>4119.860003471375</v>
+        <v>4578.980009794235</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D41" s="0" t="n"/>
       <c r="E41" s="0" t="n"/>
@@ -3171,10 +3171,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>4622.090005397797</v>
+        <v>4524.600006341934</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D42" s="0" t="n"/>
       <c r="E42" s="0" t="n"/>
@@ -3184,10 +3184,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>3973.480000972748</v>
+        <v>4608.830010890961</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="D43" s="0" t="n"/>
       <c r="E43" s="0" t="n"/>
@@ -3197,10 +3197,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>4127.680005073547</v>
+        <v>4741.700010538101</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="D44" s="0" t="n"/>
       <c r="E44" s="0" t="n"/>
@@ -3210,10 +3210,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>4497.269998073578</v>
+        <v>4498.769999623299</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D45" s="0" t="n"/>
       <c r="E45" s="0" t="n"/>
@@ -3223,10 +3223,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>4325.070000648499</v>
+        <v>4769.560006976128</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="D46" s="0" t="n"/>
       <c r="E46" s="0" t="n"/>
@@ -3236,10 +3236,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>3877.590001821518</v>
+        <v>5056.410002350807</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>325</v>
+        <v>415</v>
       </c>
       <c r="D47" s="0" t="n"/>
       <c r="E47" s="0" t="n"/>
@@ -3249,10 +3249,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>4068.230001449585</v>
+        <v>4558.720002293587</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="D48" s="0" t="n"/>
       <c r="E48" s="0" t="n"/>
@@ -3262,10 +3262,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>4537.580001354218</v>
+        <v>4842.709998607635</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="D49" s="0" t="n"/>
       <c r="E49" s="0" t="n"/>
@@ -3275,10 +3275,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>4095.689997673035</v>
+        <v>4468.320000886917</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="D50" s="0" t="n"/>
       <c r="E50" s="0" t="n"/>
@@ -3288,10 +3288,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>4305.809999465942</v>
+        <v>4523.509999752045</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="D51" s="0" t="n"/>
       <c r="E51" s="0" t="n"/>
@@ -3301,10 +3301,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>3772.939998626709</v>
+        <v>4533.870008826256</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="D52" s="0" t="n"/>
       <c r="E52" s="0" t="n"/>
@@ -3314,10 +3314,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>3864.940003395081</v>
+        <v>4459.010011672974</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="D53" s="0" t="n"/>
       <c r="E53" s="0" t="n"/>
@@ -3327,10 +3327,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>4126.189999938011</v>
+        <v>4349.490011930466</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="D54" s="0" t="n"/>
       <c r="E54" s="0" t="n"/>
@@ -3340,10 +3340,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>4023.459995746613</v>
+        <v>4315.890001535416</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="D55" s="0" t="n"/>
       <c r="E55" s="0" t="n"/>
@@ -3353,10 +3353,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>3922.41999745369</v>
+        <v>4478.600003242493</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="D56" s="0" t="n"/>
       <c r="E56" s="0" t="n"/>
@@ -3366,10 +3366,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>4039.54000711441</v>
+        <v>4502.070002794266</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="D57" s="0" t="n"/>
       <c r="E57" s="0" t="n"/>
@@ -3379,7 +3379,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>3848.779998540878</v>
+        <v>3902.090010166168</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>321</v>
@@ -3392,10 +3392,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>3527.399998188019</v>
+        <v>3937.929998874664</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="D59" s="0" t="n"/>
       <c r="E59" s="0" t="n"/>
@@ -3405,10 +3405,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>3543.760000705719</v>
+        <v>3826.160008907318</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="D60" s="0" t="n"/>
       <c r="E60" s="0" t="n"/>
@@ -3418,10 +3418,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>3692.930003166199</v>
+        <v>4251.710005044937</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="D61" s="0" t="n"/>
       <c r="E61" s="0" t="n"/>
@@ -3431,10 +3431,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>3584.700005292892</v>
+        <v>4487.499998927116</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="D62" s="0" t="n"/>
       <c r="E62" s="0" t="n"/>

--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -1201,6 +1201,12 @@
       <c r="G3" s="0" t="n">
         <v>262</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>3355</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>296</v>
+      </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
           <t>sfc数目</t>
@@ -1229,6 +1235,12 @@
       <c r="G4" s="0" t="n">
         <v>303</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>3691</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>317</v>
+      </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
           <t>网络结构</t>
@@ -1259,6 +1271,12 @@
       <c r="G5" s="0" t="n">
         <v>323</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>4266</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>360</v>
+      </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
           <t>等待时间/时间单位</t>
@@ -1287,6 +1305,12 @@
       <c r="G6" s="0" t="n">
         <v>364</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>4320</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>362</v>
+      </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
           <t>到达时间</t>
@@ -1317,6 +1341,12 @@
       <c r="G7" s="0" t="n">
         <v>337</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>4352</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>384</v>
+      </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
           <t>epsilon</t>
@@ -1354,6 +1384,12 @@
       <c r="G8" s="0" t="n">
         <v>332</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>4559</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>392</v>
+      </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
           <t>learning rate</t>
@@ -1382,6 +1418,12 @@
       <c r="G9" s="0" t="n">
         <v>342</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>4846</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>412</v>
+      </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">discount_gamma </t>
@@ -1410,6 +1452,12 @@
       <c r="G10" s="0" t="n">
         <v>302</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>5170</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>440</v>
+      </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
           <t>利润</t>
@@ -1435,6 +1483,12 @@
       <c r="G11" s="0" t="n">
         <v>325</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>4969</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>413</v>
+      </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
           <t>时间流逝系统</t>
@@ -1465,6 +1519,12 @@
       <c r="G12" s="0" t="n">
         <v>322</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>4831</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>398</v>
+      </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
           <t>网络模型</t>
@@ -1495,6 +1555,12 @@
       <c r="G13" s="0" t="n">
         <v>326</v>
       </c>
+      <c r="H13" s="0" t="n">
+        <v>5185</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>427</v>
+      </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
           <t>delay</t>
@@ -1525,6 +1591,12 @@
       <c r="G14" s="0" t="n">
         <v>307</v>
       </c>
+      <c r="H14" s="0" t="n">
+        <v>4819</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
@@ -1545,6 +1617,12 @@
       <c r="G15" s="0" t="n">
         <v>321</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>5267</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>441</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -1565,6 +1643,12 @@
       <c r="G16" s="0" t="n">
         <v>301</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <v>4973</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -1585,6 +1669,12 @@
       <c r="G17" s="0" t="n">
         <v>320</v>
       </c>
+      <c r="H17" s="0" t="n">
+        <v>5054</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>428</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -1605,6 +1695,12 @@
       <c r="G18" s="0" t="n">
         <v>298</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>5031</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>430</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
@@ -1625,6 +1721,12 @@
       <c r="G19" s="0" t="n">
         <v>292</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>5159</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>432</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
@@ -1645,6 +1747,12 @@
       <c r="G20" s="0" t="n">
         <v>317</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <v>5412</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>447</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
@@ -1665,6 +1773,12 @@
       <c r="G21" s="0" t="n">
         <v>303</v>
       </c>
+      <c r="H21" s="0" t="n">
+        <v>5274</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>449</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
@@ -1685,6 +1799,12 @@
       <c r="G22" s="0" t="n">
         <v>303</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <v>5130</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>434</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
@@ -1705,6 +1825,12 @@
       <c r="G23" s="0" t="n">
         <v>314</v>
       </c>
+      <c r="H23" s="0" t="n">
+        <v>5268</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>437</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
@@ -1725,6 +1851,12 @@
       <c r="G24" s="0" t="n">
         <v>316</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <v>5332</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
@@ -1745,6 +1877,12 @@
       <c r="G25" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>5528</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>466</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
@@ -1765,6 +1903,12 @@
       <c r="G26" s="0" t="n">
         <v>302</v>
       </c>
+      <c r="H26" s="0" t="n">
+        <v>5492</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>453</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
@@ -1785,6 +1929,12 @@
       <c r="G27" s="0" t="n">
         <v>325</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>4997</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -1805,6 +1955,12 @@
       <c r="G28" s="0" t="n">
         <v>315</v>
       </c>
+      <c r="H28" s="0" t="n">
+        <v>5116</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
@@ -1825,6 +1981,12 @@
       <c r="G29" s="0" t="n">
         <v>283</v>
       </c>
+      <c r="H29" s="0" t="n">
+        <v>4903</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
@@ -1845,6 +2007,12 @@
       <c r="G30" s="0" t="n">
         <v>302</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>4770</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>407</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
@@ -1865,6 +2033,12 @@
       <c r="G31" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="H31" s="0" t="n">
+        <v>4822</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>406</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
@@ -1885,6 +2059,12 @@
       <c r="G32" s="0" t="n">
         <v>302</v>
       </c>
+      <c r="H32" s="0" t="n">
+        <v>4786</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>405</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
@@ -1905,6 +2085,12 @@
       <c r="G33" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="H33" s="0" t="n">
+        <v>4560</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
@@ -1925,6 +2111,12 @@
       <c r="G34" s="0" t="n">
         <v>315</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>4598</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
@@ -1945,6 +2137,12 @@
       <c r="G35" s="0" t="n">
         <v>327</v>
       </c>
+      <c r="H35" s="0" t="n">
+        <v>4778</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
@@ -1965,6 +2163,12 @@
       <c r="G36" s="0" t="n">
         <v>304</v>
       </c>
+      <c r="H36" s="0" t="n">
+        <v>4755</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
@@ -1985,6 +2189,12 @@
       <c r="G37" s="0" t="n">
         <v>303</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>4750</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
@@ -2005,6 +2215,12 @@
       <c r="G38" s="0" t="n">
         <v>285</v>
       </c>
+      <c r="H38" s="0" t="n">
+        <v>4925</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>417</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
@@ -2025,6 +2241,12 @@
       <c r="G39" s="0" t="n">
         <v>277</v>
       </c>
+      <c r="H39" s="0" t="n">
+        <v>4510</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
@@ -2045,6 +2267,12 @@
       <c r="G40" s="0" t="n">
         <v>291</v>
       </c>
+      <c r="H40" s="0" t="n">
+        <v>4925</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>407</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
@@ -2065,6 +2293,12 @@
       <c r="G41" s="0" t="n">
         <v>295</v>
       </c>
+      <c r="H41" s="0" t="n">
+        <v>4779</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
@@ -2079,11 +2313,17 @@
       <c r="E42" s="0" t="n">
         <v>645</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="0" t="n">
         <v>2969</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>253</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5051</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>416</v>
       </c>
     </row>
     <row r="43">

--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -1201,12 +1201,6 @@
       <c r="G3" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>3355</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>296</v>
-      </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
           <t>sfc数目</t>
@@ -1235,12 +1229,6 @@
       <c r="G4" s="0" t="n">
         <v>303</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>3691</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>317</v>
-      </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
           <t>网络结构</t>
@@ -1271,12 +1259,6 @@
       <c r="G5" s="0" t="n">
         <v>323</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>4266</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>360</v>
-      </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
           <t>等待时间/时间单位</t>
@@ -1305,12 +1287,6 @@
       <c r="G6" s="0" t="n">
         <v>364</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>4320</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>362</v>
-      </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
           <t>到达时间</t>
@@ -1341,12 +1317,6 @@
       <c r="G7" s="0" t="n">
         <v>337</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>4352</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>384</v>
-      </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
           <t>epsilon</t>
@@ -1384,12 +1354,6 @@
       <c r="G8" s="0" t="n">
         <v>332</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>4559</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>392</v>
-      </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
           <t>learning rate</t>
@@ -1418,12 +1382,6 @@
       <c r="G9" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>4846</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>412</v>
-      </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">discount_gamma </t>
@@ -1452,12 +1410,6 @@
       <c r="G10" s="0" t="n">
         <v>302</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>5170</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>440</v>
-      </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
           <t>利润</t>
@@ -1483,12 +1435,6 @@
       <c r="G11" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>4969</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>413</v>
-      </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
           <t>时间流逝系统</t>
@@ -1519,12 +1465,6 @@
       <c r="G12" s="0" t="n">
         <v>322</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>4831</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>398</v>
-      </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
           <t>网络模型</t>
@@ -1555,12 +1495,6 @@
       <c r="G13" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>5185</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>427</v>
-      </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
           <t>delay</t>
@@ -1591,12 +1525,6 @@
       <c r="G14" s="0" t="n">
         <v>307</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>4819</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>419</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
@@ -1617,12 +1545,6 @@
       <c r="G15" s="0" t="n">
         <v>321</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>5267</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>441</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -1643,12 +1565,6 @@
       <c r="G16" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>4973</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>422</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -1669,12 +1585,6 @@
       <c r="G17" s="0" t="n">
         <v>320</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>5054</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>428</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -1695,12 +1605,6 @@
       <c r="G18" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <v>5031</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>430</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
@@ -1721,12 +1625,6 @@
       <c r="G19" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="H19" s="0" t="n">
-        <v>5159</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>432</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
@@ -1747,12 +1645,6 @@
       <c r="G20" s="0" t="n">
         <v>317</v>
       </c>
-      <c r="H20" s="0" t="n">
-        <v>5412</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>447</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
@@ -1773,12 +1665,6 @@
       <c r="G21" s="0" t="n">
         <v>303</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>5274</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>449</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
@@ -1799,12 +1685,6 @@
       <c r="G22" s="0" t="n">
         <v>303</v>
       </c>
-      <c r="H22" s="0" t="n">
-        <v>5130</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>434</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
@@ -1825,12 +1705,6 @@
       <c r="G23" s="0" t="n">
         <v>314</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <v>5268</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>437</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
@@ -1851,12 +1725,6 @@
       <c r="G24" s="0" t="n">
         <v>316</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <v>5332</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>444</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
@@ -1877,12 +1745,6 @@
       <c r="G25" s="0" t="n">
         <v>313</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>5528</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>466</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
@@ -1903,12 +1765,6 @@
       <c r="G26" s="0" t="n">
         <v>302</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>5492</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>453</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
@@ -1929,12 +1785,6 @@
       <c r="G27" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>4997</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>420</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -1955,12 +1805,6 @@
       <c r="G28" s="0" t="n">
         <v>315</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <v>5116</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>420</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
@@ -1981,12 +1825,6 @@
       <c r="G29" s="0" t="n">
         <v>283</v>
       </c>
-      <c r="H29" s="0" t="n">
-        <v>4903</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>418</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
@@ -2007,12 +1845,6 @@
       <c r="G30" s="0" t="n">
         <v>302</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <v>4770</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>407</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
@@ -2033,12 +1865,6 @@
       <c r="G31" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="H31" s="0" t="n">
-        <v>4822</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>406</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
@@ -2059,12 +1885,6 @@
       <c r="G32" s="0" t="n">
         <v>302</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <v>4786</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>405</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
@@ -2085,12 +1905,6 @@
       <c r="G33" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="H33" s="0" t="n">
-        <v>4560</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>379</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
@@ -2111,12 +1925,6 @@
       <c r="G34" s="0" t="n">
         <v>315</v>
       </c>
-      <c r="H34" s="0" t="n">
-        <v>4598</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>389</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
@@ -2137,12 +1945,6 @@
       <c r="G35" s="0" t="n">
         <v>327</v>
       </c>
-      <c r="H35" s="0" t="n">
-        <v>4778</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>398</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
@@ -2163,12 +1965,6 @@
       <c r="G36" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="H36" s="0" t="n">
-        <v>4755</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>399</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
@@ -2189,12 +1985,6 @@
       <c r="G37" s="0" t="n">
         <v>303</v>
       </c>
-      <c r="H37" s="0" t="n">
-        <v>4750</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>393</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
@@ -2215,12 +2005,6 @@
       <c r="G38" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="H38" s="0" t="n">
-        <v>4925</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>417</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
@@ -2241,12 +2025,6 @@
       <c r="G39" s="0" t="n">
         <v>277</v>
       </c>
-      <c r="H39" s="0" t="n">
-        <v>4510</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>385</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
@@ -2267,12 +2045,6 @@
       <c r="G40" s="0" t="n">
         <v>291</v>
       </c>
-      <c r="H40" s="0" t="n">
-        <v>4925</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>407</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
@@ -2293,12 +2065,6 @@
       <c r="G41" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="H41" s="0" t="n">
-        <v>4779</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>400</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
@@ -2313,17 +2079,11 @@
       <c r="E42" s="0" t="n">
         <v>645</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" t="n">
         <v>2969</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>253</v>
-      </c>
-      <c r="H42" t="n">
-        <v>5051</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>416</v>
       </c>
     </row>
     <row r="43">

--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -2319,7 +2319,7 @@
       <c r="G42" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="0" t="n">
         <v>5051</v>
       </c>
       <c r="I42" s="0" t="n">
@@ -5378,14 +5378,471 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B3:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="0" t="n">
+        <v>762</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="0" t="n">
+        <v>691</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="0" t="n">
+        <v>804</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="0" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="0" t="n">
+        <v>458</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="0" t="n">
+        <v>1371</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="0" t="n">
+        <v>622</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="0" t="n">
+        <v>1067</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="n">
+        <v>474</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="0" t="n">
+        <v>1111</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="0" t="n">
+        <v>682</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="0" t="n">
+        <v>1166</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="0" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="0" t="n">
+        <v>778</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="0" t="n">
+        <v>1205</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="0" t="n">
+        <v>977</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="0" t="n">
+        <v>831</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="0" t="n">
+        <v>1562</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="0" t="n">
+        <v>895</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="0" t="n">
+        <v>1152</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="0" t="n">
+        <v>1121</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="0" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="0" t="n">
+        <v>1387</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="0" t="n">
+        <v>1394</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="0" t="n">
+        <v>1394</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="0" t="n">
+        <v>1621</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="0" t="n">
+        <v>1107</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="0" t="n">
+        <v>1779</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="0" t="n">
+        <v>1067</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="0" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="0" t="n">
+        <v>1584</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="0" t="n">
+        <v>2173</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="0" t="n">
+        <v>1632</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="0" t="n">
+        <v>1532</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="0" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="0" t="n">
+        <v>1283</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="0" t="n">
+        <v>1139</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="0" t="n">
+        <v>1413</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="0" t="n">
+        <v>1544</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="0" t="n">
+        <v>1426</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="0" t="n">
+        <v>1321</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="0" t="n">
+        <v>1776</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="0" t="n">
+        <v>1632</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="0" t="n">
+        <v>1144</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="0" t="n">
+        <v>1124</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="0" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="0" t="n">
+        <v>861</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="0" t="n">
+        <v>2175</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="0" t="n">
+        <v>1467</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="0" t="n">
+        <v>1862</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="8555" activeTab="3"/>
+    <workbookView windowWidth="21311" windowHeight="9684" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="8.20实验数据" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="44">
   <si>
     <t>总利润</t>
   </si>
@@ -124,7 +124,7 @@
     <t>U[0.9,0]</t>
   </si>
   <si>
-    <t>(0.9,0)</t>
+    <t>[0.9,0]</t>
   </si>
   <si>
     <t>cernnet2_2</t>
@@ -138,15 +138,27 @@
   <si>
     <t>cernnet2_3</t>
   </si>
+  <si>
+    <t>cernnet2_4</t>
+  </si>
+  <si>
+    <t>bandwidth</t>
+  </si>
+  <si>
+    <t>u(0.1,0.5)</t>
+  </si>
+  <si>
+    <t>u(0.28,0.32)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -159,7 +171,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +225,53 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,22 +287,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,93 +307,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,7 +323,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,175 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,39 +514,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,8 +535,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +568,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -602,6 +605,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -622,133 +634,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,7 +1129,7 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2975,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5266,7 +5278,7 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6014,20 +6026,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="16" max="16" width="21.5555555555556" customWidth="1"/>
+    <col min="16" max="16" width="10.6666666666667" customWidth="1"/>
+    <col min="17" max="17" width="21.5555555555556" customWidth="1"/>
+    <col min="20" max="20" width="13.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6035,292 +6049,555 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="B3">
+        <v>1820</v>
+      </c>
+      <c r="C3">
+        <v>296</v>
+      </c>
+      <c r="P3" t="s">
         <v>11</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="B4">
+        <v>1826</v>
+      </c>
+      <c r="C4">
+        <v>304</v>
+      </c>
+      <c r="P4" t="s">
         <v>12</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="O5" t="s">
+      <c r="B5">
+        <v>1898</v>
+      </c>
+      <c r="C5">
+        <v>303</v>
+      </c>
+      <c r="P5" t="s">
         <v>14</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
+      <c r="B6">
+        <v>3572</v>
+      </c>
+      <c r="C6">
+        <v>423</v>
+      </c>
+      <c r="P6" t="s">
         <v>15</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
+      <c r="B7">
+        <v>3541</v>
+      </c>
+      <c r="C7">
+        <v>423</v>
+      </c>
+      <c r="P7" t="s">
         <v>17</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="T7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="O8" t="s">
+      <c r="B8">
+        <v>2341</v>
+      </c>
+      <c r="C8">
+        <v>336</v>
+      </c>
+      <c r="P8" t="s">
         <v>18</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.0005</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="O9" t="s">
+      <c r="B9">
+        <v>3529</v>
+      </c>
+      <c r="C9">
+        <v>421</v>
+      </c>
+      <c r="P9" t="s">
         <v>19</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="O10" t="s">
+      <c r="B10">
+        <v>2166</v>
+      </c>
+      <c r="C10">
+        <v>321</v>
+      </c>
+      <c r="P10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="O11" t="s">
+      <c r="B11">
+        <v>2192</v>
+      </c>
+      <c r="C11">
+        <v>314</v>
+      </c>
+      <c r="P11" t="s">
         <v>21</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="O12" t="s">
+      <c r="B12">
+        <v>2201</v>
+      </c>
+      <c r="C12">
+        <v>324</v>
+      </c>
+      <c r="P12" t="s">
         <v>23</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="T12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="B13">
+        <v>2058</v>
+      </c>
+      <c r="C13">
+        <v>315</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="O14" t="s">
+      <c r="B14">
+        <v>2039</v>
+      </c>
+      <c r="C14">
+        <v>308</v>
+      </c>
+      <c r="P14" t="s">
         <v>25</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>3429</v>
+      </c>
+      <c r="C15">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>2327</v>
+      </c>
+      <c r="C16">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>3652</v>
+      </c>
+      <c r="C17">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1981</v>
+      </c>
+      <c r="C18">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>3668</v>
+      </c>
+      <c r="C19">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>3770</v>
+      </c>
+      <c r="C20">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1901</v>
+      </c>
+      <c r="C21">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>2058</v>
+      </c>
+      <c r="C22">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>3241</v>
+      </c>
+      <c r="C23">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>3515</v>
+      </c>
+      <c r="C24">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>3256</v>
+      </c>
+      <c r="C25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>2210</v>
+      </c>
+      <c r="C26">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>3915</v>
+      </c>
+      <c r="C27">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>3192</v>
+      </c>
+      <c r="C28">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>1782</v>
+      </c>
+      <c r="C29">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>3721</v>
+      </c>
+      <c r="C30">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>3453</v>
+      </c>
+      <c r="C31">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>3596</v>
+      </c>
+      <c r="C32">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>3856</v>
+      </c>
+      <c r="C33">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>1937</v>
+      </c>
+      <c r="C34">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>2327</v>
+      </c>
+      <c r="C35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>3320</v>
+      </c>
+      <c r="C36">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>2331</v>
+      </c>
+      <c r="C37">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>4022</v>
+      </c>
+      <c r="C38">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>4050</v>
+      </c>
+      <c r="C39">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>4492</v>
+      </c>
+      <c r="C40">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>3718</v>
+      </c>
+      <c r="C41">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>40</v>
+      </c>
+      <c r="B42">
+        <v>3643</v>
+      </c>
+      <c r="C42">
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:1">

--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420" tabRatio="551" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22488" windowHeight="9420" tabRatio="551" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="8.20实验数据" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="9.23实验数据" sheetId="3" r:id="rId3"/>
     <sheet name="9.26实验数据" sheetId="4" r:id="rId4"/>
     <sheet name="10.10实验数据" sheetId="5" r:id="rId5"/>
-    <sheet name="10.13实验数据 " sheetId="6" r:id="rId6"/>
+    <sheet name="10.13实验数据" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
   <si>
     <t>总利润</t>
   </si>
@@ -166,7 +166,13 @@
     <t>u(0.48，0.52)</t>
   </si>
   <si>
+    <t>GH</t>
+  </si>
+  <si>
     <t>cernnet2_6</t>
+  </si>
+  <si>
+    <t>未训练的智能体(有限制)</t>
   </si>
 </sst>
 </file>
@@ -174,19 +180,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,30 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +217,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -249,7 +225,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +269,46 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,63 +330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,7 +347,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +479,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,157 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,45 +543,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -592,17 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,11 +585,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,144 +658,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1176,10 +1172,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
@@ -1214,13 +1210,13 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -3040,10 +3036,10 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F1" t="s">
@@ -3090,16 +3086,16 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
@@ -6961,13 +6957,13 @@
   <sheetPr/>
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" style="1" customWidth="1"/>
     <col min="16" max="16" width="21" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.3333333333333" style="1" customWidth="1"/>
@@ -6983,10 +6979,10 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
       <c r="P1" t="s">
@@ -7305,13 +7301,13 @@
       <c r="E15">
         <v>590</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <v>0.9995</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8670,21 +8666,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
+    <col min="6" max="6" width="10.6666666666667"/>
     <col min="16" max="16" width="21" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1111111111111" customWidth="1"/>
+    <col min="20" max="20" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8694,10 +8692,16 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
       </c>
       <c r="P1" t="s">
@@ -8710,7 +8714,10 @@
         <v>28</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -8723,6 +8730,12 @@
       <c r="E2">
         <v>641</v>
       </c>
+      <c r="F2">
+        <v>11860.721</v>
+      </c>
+      <c r="G2">
+        <v>613</v>
+      </c>
       <c r="P2" t="s">
         <v>10</v>
       </c>
@@ -8734,11 +8747,23 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>360</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
       <c r="D3">
         <v>12125</v>
       </c>
       <c r="E3">
         <v>641</v>
+      </c>
+      <c r="F3">
+        <v>11861.721</v>
+      </c>
+      <c r="G3">
+        <v>613</v>
       </c>
       <c r="P3" t="s">
         <v>11</v>
@@ -8757,6 +8782,12 @@
       <c r="E4">
         <v>641</v>
       </c>
+      <c r="F4">
+        <v>11862.721</v>
+      </c>
+      <c r="G4">
+        <v>613</v>
+      </c>
       <c r="P4" t="s">
         <v>12</v>
       </c>
@@ -8774,6 +8805,12 @@
       <c r="E5">
         <v>641</v>
       </c>
+      <c r="F5">
+        <v>11863.721</v>
+      </c>
+      <c r="G5">
+        <v>613</v>
+      </c>
       <c r="P5" t="s">
         <v>14</v>
       </c>
@@ -8791,6 +8828,12 @@
       <c r="E6">
         <v>641</v>
       </c>
+      <c r="F6">
+        <v>11864.721</v>
+      </c>
+      <c r="G6">
+        <v>613</v>
+      </c>
       <c r="P6" t="s">
         <v>15</v>
       </c>
@@ -8808,6 +8851,12 @@
       <c r="E7">
         <v>641</v>
       </c>
+      <c r="F7">
+        <v>11865.721</v>
+      </c>
+      <c r="G7">
+        <v>613</v>
+      </c>
       <c r="P7" t="s">
         <v>17</v>
       </c>
@@ -8828,6 +8877,12 @@
       <c r="E8">
         <v>641</v>
       </c>
+      <c r="F8">
+        <v>11866.721</v>
+      </c>
+      <c r="G8">
+        <v>613</v>
+      </c>
       <c r="P8" t="s">
         <v>18</v>
       </c>
@@ -8845,6 +8900,12 @@
       <c r="E9">
         <v>641</v>
       </c>
+      <c r="F9">
+        <v>11867.721</v>
+      </c>
+      <c r="G9">
+        <v>613</v>
+      </c>
       <c r="P9" t="s">
         <v>19</v>
       </c>
@@ -8862,6 +8923,12 @@
       <c r="E10">
         <v>641</v>
       </c>
+      <c r="F10">
+        <v>11868.721</v>
+      </c>
+      <c r="G10">
+        <v>613</v>
+      </c>
       <c r="P10" t="s">
         <v>20</v>
       </c>
@@ -8876,6 +8943,12 @@
       <c r="E11">
         <v>641</v>
       </c>
+      <c r="F11">
+        <v>11869.721</v>
+      </c>
+      <c r="G11">
+        <v>613</v>
+      </c>
       <c r="P11" t="s">
         <v>21</v>
       </c>
@@ -8893,11 +8966,17 @@
       <c r="E12">
         <v>641</v>
       </c>
+      <c r="F12">
+        <v>11870.721</v>
+      </c>
+      <c r="G12">
+        <v>613</v>
+      </c>
       <c r="P12" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>48</v>
+      <c r="Q12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -8910,6 +8989,12 @@
       <c r="E13">
         <v>641</v>
       </c>
+      <c r="F13">
+        <v>11871.721</v>
+      </c>
+      <c r="G13">
+        <v>613</v>
+      </c>
       <c r="P13" t="s">
         <v>42</v>
       </c>
@@ -8927,6 +9012,12 @@
       <c r="E14">
         <v>641</v>
       </c>
+      <c r="F14">
+        <v>11872.721</v>
+      </c>
+      <c r="G14">
+        <v>613</v>
+      </c>
       <c r="P14" t="s">
         <v>25</v>
       </c>
@@ -8944,14 +9035,20 @@
       <c r="E15">
         <v>641</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="F15">
+        <v>11873.721</v>
+      </c>
+      <c r="G15">
+        <v>613</v>
+      </c>
+      <c r="P15" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <v>0.9995</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8961,11 +9058,20 @@
       <c r="E16">
         <v>641</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="F16">
+        <v>11874.721</v>
+      </c>
+      <c r="G16">
+        <v>613</v>
+      </c>
+      <c r="T16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="U16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8975,8 +9081,14 @@
       <c r="E17">
         <v>641</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>11875.721</v>
+      </c>
+      <c r="G17">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8986,8 +9098,14 @@
       <c r="E18">
         <v>641</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>11876.721</v>
+      </c>
+      <c r="G18">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8997,8 +9115,14 @@
       <c r="E19">
         <v>641</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>11877.721</v>
+      </c>
+      <c r="G19">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9008,8 +9132,14 @@
       <c r="E20">
         <v>641</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>11878.721</v>
+      </c>
+      <c r="G20">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9019,8 +9149,14 @@
       <c r="E21">
         <v>641</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>11879.721</v>
+      </c>
+      <c r="G21">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9030,8 +9166,14 @@
       <c r="E22">
         <v>641</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>11880.721</v>
+      </c>
+      <c r="G22">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9041,8 +9183,14 @@
       <c r="E23">
         <v>641</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>11881.721</v>
+      </c>
+      <c r="G23">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9052,8 +9200,14 @@
       <c r="E24">
         <v>641</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>11882.721</v>
+      </c>
+      <c r="G24">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9063,8 +9217,14 @@
       <c r="E25">
         <v>641</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>11883.721</v>
+      </c>
+      <c r="G25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9074,8 +9234,14 @@
       <c r="E26">
         <v>641</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>11884.721</v>
+      </c>
+      <c r="G26">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9085,8 +9251,14 @@
       <c r="E27">
         <v>641</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>11885.721</v>
+      </c>
+      <c r="G27">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9096,8 +9268,14 @@
       <c r="E28">
         <v>641</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>11886.721</v>
+      </c>
+      <c r="G28">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9107,8 +9285,14 @@
       <c r="E29">
         <v>641</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>11887.721</v>
+      </c>
+      <c r="G29">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9118,8 +9302,14 @@
       <c r="E30">
         <v>641</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>11888.721</v>
+      </c>
+      <c r="G30">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9129,8 +9319,14 @@
       <c r="E31">
         <v>641</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>11889.721</v>
+      </c>
+      <c r="G31">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9140,8 +9336,14 @@
       <c r="E32">
         <v>641</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>11890.721</v>
+      </c>
+      <c r="G32">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9151,8 +9353,14 @@
       <c r="E33">
         <v>641</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>11891.721</v>
+      </c>
+      <c r="G33">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9162,8 +9370,14 @@
       <c r="E34">
         <v>641</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>11892.721</v>
+      </c>
+      <c r="G34">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9173,8 +9387,14 @@
       <c r="E35">
         <v>641</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>11893.721</v>
+      </c>
+      <c r="G35">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9184,8 +9404,14 @@
       <c r="E36">
         <v>641</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>11894.721</v>
+      </c>
+      <c r="G36">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9195,8 +9421,14 @@
       <c r="E37">
         <v>641</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>11895.721</v>
+      </c>
+      <c r="G37">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9206,8 +9438,14 @@
       <c r="E38">
         <v>641</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>11896.721</v>
+      </c>
+      <c r="G38">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>37</v>
       </c>
@@ -9217,8 +9455,14 @@
       <c r="E39">
         <v>641</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>11897.721</v>
+      </c>
+      <c r="G39">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>38</v>
       </c>
@@ -9228,8 +9472,14 @@
       <c r="E40">
         <v>641</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>11898.721</v>
+      </c>
+      <c r="G40">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>39</v>
       </c>
@@ -9239,8 +9489,14 @@
       <c r="E41">
         <v>641</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>11899.721</v>
+      </c>
+      <c r="G41">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>40</v>
       </c>
@@ -9250,8 +9506,14 @@
       <c r="E42">
         <v>641</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>11900.721</v>
+      </c>
+      <c r="G42">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>41</v>
       </c>
@@ -9261,8 +9523,14 @@
       <c r="E43">
         <v>641</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>11901.721</v>
+      </c>
+      <c r="G43">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>42</v>
       </c>
@@ -9272,8 +9540,14 @@
       <c r="E44">
         <v>641</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>11902.721</v>
+      </c>
+      <c r="G44">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>43</v>
       </c>
@@ -9283,8 +9557,14 @@
       <c r="E45">
         <v>641</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>11903.721</v>
+      </c>
+      <c r="G45">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>44</v>
       </c>
@@ -9294,8 +9574,14 @@
       <c r="E46">
         <v>641</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>11904.721</v>
+      </c>
+      <c r="G46">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>45</v>
       </c>
@@ -9305,8 +9591,14 @@
       <c r="E47">
         <v>641</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>11905.721</v>
+      </c>
+      <c r="G47">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>46</v>
       </c>
@@ -9316,8 +9608,14 @@
       <c r="E48">
         <v>641</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>11906.721</v>
+      </c>
+      <c r="G48">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9327,8 +9625,14 @@
       <c r="E49">
         <v>641</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>11907.721</v>
+      </c>
+      <c r="G49">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9338,8 +9642,14 @@
       <c r="E50">
         <v>641</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>11908.721</v>
+      </c>
+      <c r="G50">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9349,8 +9659,14 @@
       <c r="E51">
         <v>641</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>11909.721</v>
+      </c>
+      <c r="G51">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9360,8 +9676,14 @@
       <c r="E52">
         <v>641</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>11910.721</v>
+      </c>
+      <c r="G52">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9371,8 +9693,14 @@
       <c r="E53">
         <v>641</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>11911.721</v>
+      </c>
+      <c r="G53">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9382,8 +9710,14 @@
       <c r="E54">
         <v>641</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>11912.721</v>
+      </c>
+      <c r="G54">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9393,373 +9727,655 @@
       <c r="E55">
         <v>641</v>
       </c>
-    </row>
-    <row r="56" spans="4:5">
+      <c r="F55">
+        <v>11913.721</v>
+      </c>
+      <c r="G55">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7">
       <c r="D56">
         <v>12125</v>
       </c>
       <c r="E56">
         <v>641</v>
       </c>
-    </row>
-    <row r="57" spans="4:5">
+      <c r="F56">
+        <v>11914.721</v>
+      </c>
+      <c r="G56">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7">
       <c r="D57">
         <v>12125</v>
       </c>
       <c r="E57">
         <v>641</v>
       </c>
-    </row>
-    <row r="58" spans="4:5">
+      <c r="F57">
+        <v>11915.721</v>
+      </c>
+      <c r="G57">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7">
       <c r="D58">
         <v>12125</v>
       </c>
       <c r="E58">
         <v>641</v>
       </c>
-    </row>
-    <row r="59" spans="4:5">
+      <c r="F58">
+        <v>11916.721</v>
+      </c>
+      <c r="G58">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7">
       <c r="D59">
         <v>12125</v>
       </c>
       <c r="E59">
         <v>641</v>
       </c>
-    </row>
-    <row r="60" spans="4:5">
+      <c r="F59">
+        <v>11917.721</v>
+      </c>
+      <c r="G59">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7">
       <c r="D60">
         <v>12125</v>
       </c>
       <c r="E60">
         <v>641</v>
       </c>
-    </row>
-    <row r="61" spans="4:5">
+      <c r="F60">
+        <v>11918.721</v>
+      </c>
+      <c r="G60">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7">
       <c r="D61">
         <v>12125</v>
       </c>
       <c r="E61">
         <v>641</v>
       </c>
-    </row>
-    <row r="62" spans="4:5">
+      <c r="F61">
+        <v>11919.721</v>
+      </c>
+      <c r="G61">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7">
       <c r="D62">
         <v>12125</v>
       </c>
       <c r="E62">
         <v>641</v>
       </c>
-    </row>
-    <row r="63" spans="4:5">
+      <c r="F62">
+        <v>11920.721</v>
+      </c>
+      <c r="G62">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7">
       <c r="D63">
         <v>12125</v>
       </c>
       <c r="E63">
         <v>641</v>
       </c>
-    </row>
-    <row r="64" spans="4:5">
+      <c r="F63">
+        <v>11921.721</v>
+      </c>
+      <c r="G63">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7">
       <c r="D64">
         <v>12125</v>
       </c>
       <c r="E64">
         <v>641</v>
       </c>
-    </row>
-    <row r="65" spans="4:5">
+      <c r="F64">
+        <v>11922.721</v>
+      </c>
+      <c r="G64">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7">
       <c r="D65">
         <v>12125</v>
       </c>
       <c r="E65">
         <v>641</v>
       </c>
-    </row>
-    <row r="66" spans="4:5">
+      <c r="F65">
+        <v>11923.721</v>
+      </c>
+      <c r="G65">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7">
       <c r="D66">
         <v>12125</v>
       </c>
       <c r="E66">
         <v>641</v>
       </c>
-    </row>
-    <row r="67" spans="4:5">
+      <c r="F66">
+        <v>11924.721</v>
+      </c>
+      <c r="G66">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7">
       <c r="D67">
         <v>12125</v>
       </c>
       <c r="E67">
         <v>641</v>
       </c>
-    </row>
-    <row r="68" spans="4:5">
+      <c r="F67">
+        <v>11925.721</v>
+      </c>
+      <c r="G67">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7">
       <c r="D68">
         <v>12125</v>
       </c>
       <c r="E68">
         <v>641</v>
       </c>
-    </row>
-    <row r="69" spans="4:5">
+      <c r="F68">
+        <v>11926.721</v>
+      </c>
+      <c r="G68">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7">
       <c r="D69">
         <v>12125</v>
       </c>
       <c r="E69">
         <v>641</v>
       </c>
-    </row>
-    <row r="70" spans="4:5">
+      <c r="F69">
+        <v>11927.721</v>
+      </c>
+      <c r="G69">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7">
       <c r="D70">
         <v>12125</v>
       </c>
       <c r="E70">
         <v>641</v>
       </c>
-    </row>
-    <row r="71" spans="4:5">
+      <c r="F70">
+        <v>11928.721</v>
+      </c>
+      <c r="G70">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7">
       <c r="D71">
         <v>12125</v>
       </c>
       <c r="E71">
         <v>641</v>
       </c>
-    </row>
-    <row r="72" spans="4:5">
+      <c r="F71">
+        <v>11929.721</v>
+      </c>
+      <c r="G71">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7">
       <c r="D72">
         <v>12125</v>
       </c>
       <c r="E72">
         <v>641</v>
       </c>
-    </row>
-    <row r="73" spans="4:5">
+      <c r="F72">
+        <v>11930.721</v>
+      </c>
+      <c r="G72">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7">
       <c r="D73">
         <v>12125</v>
       </c>
       <c r="E73">
         <v>641</v>
       </c>
-    </row>
-    <row r="74" spans="4:5">
+      <c r="F73">
+        <v>11931.721</v>
+      </c>
+      <c r="G73">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7">
       <c r="D74">
         <v>12125</v>
       </c>
       <c r="E74">
         <v>641</v>
       </c>
-    </row>
-    <row r="75" spans="4:5">
+      <c r="F74">
+        <v>11932.721</v>
+      </c>
+      <c r="G74">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7">
       <c r="D75">
         <v>12125</v>
       </c>
       <c r="E75">
         <v>641</v>
       </c>
-    </row>
-    <row r="76" spans="4:5">
+      <c r="F75">
+        <v>11933.721</v>
+      </c>
+      <c r="G75">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7">
       <c r="D76">
         <v>12125</v>
       </c>
       <c r="E76">
         <v>641</v>
       </c>
-    </row>
-    <row r="77" spans="4:5">
+      <c r="F76">
+        <v>11934.721</v>
+      </c>
+      <c r="G76">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7">
       <c r="D77">
         <v>12125</v>
       </c>
       <c r="E77">
         <v>641</v>
       </c>
-    </row>
-    <row r="78" spans="4:5">
+      <c r="F77">
+        <v>11935.721</v>
+      </c>
+      <c r="G77">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7">
       <c r="D78">
         <v>12125</v>
       </c>
       <c r="E78">
         <v>641</v>
       </c>
-    </row>
-    <row r="79" spans="4:5">
+      <c r="F78">
+        <v>11936.721</v>
+      </c>
+      <c r="G78">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7">
       <c r="D79">
         <v>12125</v>
       </c>
       <c r="E79">
         <v>641</v>
       </c>
-    </row>
-    <row r="80" spans="4:5">
+      <c r="F79">
+        <v>11937.721</v>
+      </c>
+      <c r="G79">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7">
       <c r="D80">
         <v>12125</v>
       </c>
       <c r="E80">
         <v>641</v>
       </c>
-    </row>
-    <row r="81" spans="4:5">
+      <c r="F80">
+        <v>11938.721</v>
+      </c>
+      <c r="G80">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7">
       <c r="D81">
         <v>12125</v>
       </c>
       <c r="E81">
         <v>641</v>
       </c>
-    </row>
-    <row r="82" spans="4:5">
+      <c r="F81">
+        <v>11939.721</v>
+      </c>
+      <c r="G81">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7">
       <c r="D82">
         <v>12125</v>
       </c>
       <c r="E82">
         <v>641</v>
       </c>
-    </row>
-    <row r="83" spans="4:5">
+      <c r="F82">
+        <v>11940.721</v>
+      </c>
+      <c r="G82">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7">
       <c r="D83">
         <v>12125</v>
       </c>
       <c r="E83">
         <v>641</v>
       </c>
-    </row>
-    <row r="84" spans="4:5">
+      <c r="F83">
+        <v>11941.721</v>
+      </c>
+      <c r="G83">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7">
       <c r="D84">
         <v>12125</v>
       </c>
       <c r="E84">
         <v>641</v>
       </c>
-    </row>
-    <row r="85" spans="4:5">
+      <c r="F84">
+        <v>11942.721</v>
+      </c>
+      <c r="G84">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7">
       <c r="D85">
         <v>12125</v>
       </c>
       <c r="E85">
         <v>641</v>
       </c>
-    </row>
-    <row r="86" spans="4:5">
+      <c r="F85">
+        <v>11943.721</v>
+      </c>
+      <c r="G85">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7">
       <c r="D86">
         <v>12125</v>
       </c>
       <c r="E86">
         <v>641</v>
       </c>
-    </row>
-    <row r="87" spans="4:5">
+      <c r="F86">
+        <v>11944.721</v>
+      </c>
+      <c r="G86">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7">
       <c r="D87">
         <v>12125</v>
       </c>
       <c r="E87">
         <v>641</v>
       </c>
-    </row>
-    <row r="88" spans="4:5">
+      <c r="F87">
+        <v>11945.721</v>
+      </c>
+      <c r="G87">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7">
       <c r="D88">
         <v>12125</v>
       </c>
       <c r="E88">
         <v>641</v>
       </c>
-    </row>
-    <row r="89" spans="4:5">
+      <c r="F88">
+        <v>11946.721</v>
+      </c>
+      <c r="G88">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7">
       <c r="D89">
         <v>12125</v>
       </c>
       <c r="E89">
         <v>641</v>
       </c>
-    </row>
-    <row r="90" spans="4:5">
+      <c r="F89">
+        <v>11947.721</v>
+      </c>
+      <c r="G89">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7">
       <c r="D90">
         <v>12125</v>
       </c>
       <c r="E90">
         <v>641</v>
       </c>
-    </row>
-    <row r="91" spans="4:5">
+      <c r="F90">
+        <v>11948.721</v>
+      </c>
+      <c r="G90">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7">
       <c r="D91">
         <v>12125</v>
       </c>
       <c r="E91">
         <v>641</v>
       </c>
-    </row>
-    <row r="92" spans="4:5">
+      <c r="F91">
+        <v>11949.721</v>
+      </c>
+      <c r="G91">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7">
       <c r="D92">
         <v>12125</v>
       </c>
       <c r="E92">
         <v>641</v>
       </c>
-    </row>
-    <row r="93" spans="4:5">
+      <c r="F92">
+        <v>11950.721</v>
+      </c>
+      <c r="G92">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7">
       <c r="D93">
         <v>12125</v>
       </c>
       <c r="E93">
         <v>641</v>
       </c>
-    </row>
-    <row r="94" spans="4:5">
+      <c r="F93">
+        <v>11951.721</v>
+      </c>
+      <c r="G93">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7">
       <c r="D94">
         <v>12125</v>
       </c>
       <c r="E94">
         <v>641</v>
       </c>
-    </row>
-    <row r="95" spans="4:5">
+      <c r="F94">
+        <v>11952.721</v>
+      </c>
+      <c r="G94">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7">
       <c r="D95">
         <v>12125</v>
       </c>
       <c r="E95">
         <v>641</v>
       </c>
-    </row>
-    <row r="96" spans="4:5">
+      <c r="F95">
+        <v>11953.721</v>
+      </c>
+      <c r="G95">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7">
       <c r="D96">
         <v>12125</v>
       </c>
       <c r="E96">
         <v>641</v>
       </c>
-    </row>
-    <row r="97" spans="4:5">
+      <c r="F96">
+        <v>11954.721</v>
+      </c>
+      <c r="G96">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7">
       <c r="D97">
         <v>12125</v>
       </c>
       <c r="E97">
         <v>641</v>
       </c>
-    </row>
-    <row r="98" spans="4:5">
+      <c r="F97">
+        <v>11955.721</v>
+      </c>
+      <c r="G97">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7">
       <c r="D98">
         <v>12125</v>
       </c>
       <c r="E98">
         <v>641</v>
       </c>
-    </row>
-    <row r="99" spans="4:5">
+      <c r="F98">
+        <v>11956.721</v>
+      </c>
+      <c r="G98">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7">
       <c r="D99">
         <v>12125</v>
       </c>
       <c r="E99">
         <v>641</v>
       </c>
-    </row>
-    <row r="100" spans="4:5">
+      <c r="F99">
+        <v>11957.721</v>
+      </c>
+      <c r="G99">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7">
       <c r="D100">
         <v>12125</v>
       </c>
       <c r="E100">
         <v>641</v>
       </c>
-    </row>
-    <row r="101" spans="4:5">
+      <c r="F100">
+        <v>11958.721</v>
+      </c>
+      <c r="G100">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7">
       <c r="D101">
         <v>12125</v>
       </c>
       <c r="E101">
         <v>641</v>
+      </c>
+      <c r="F101">
+        <v>11959.721</v>
+      </c>
+      <c r="G101">
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwenkai\PycharmProjects\DRLSFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E45DF26-2C66-4995-B425-09E701685EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F85DDD-4896-4062-A8AD-0F13CF03035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="464" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="464" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8.20实验数据" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="9.26实验数据" sheetId="4" r:id="rId4"/>
     <sheet name="10.10实验数据" sheetId="5" r:id="rId5"/>
     <sheet name="10.13实验数据" sheetId="6" r:id="rId6"/>
+    <sheet name="10.30实验数据" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="55">
   <si>
     <t>总利润</t>
   </si>
@@ -176,6 +177,21 @@
   <si>
     <t>未训练的policy</t>
   </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>增加动作限制：可选择的最近五个</t>
+  </si>
+  <si>
+    <t>action_constraint</t>
+  </si>
+  <si>
+    <t>可选择的最近五个</t>
+  </si>
+  <si>
+    <t>使epsilon的下降，先快后慢，抚平训练曲线</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,14 +583,14 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="8"/>
       <c r="F1" t="s">
         <v>0</v>
       </c>
@@ -8054,8 +8071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4"/>
@@ -8488,7 +8505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8507,8 +8524,14 @@
       <c r="G17">
         <v>613</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="P17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8528,7 +8551,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8548,7 +8571,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8568,7 +8591,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8588,7 +8611,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8608,7 +8631,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8628,7 +8651,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8648,7 +8671,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8668,7 +8691,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8688,7 +8711,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8705,7 +8728,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8722,7 +8745,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8739,7 +8762,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8756,7 +8779,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8773,7 +8796,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9836,4 +9859,657 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E75A68-E04E-447B-9B73-D6E453408C6D}">
+  <dimension ref="A1:S99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="16.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>10000</v>
+      </c>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3">
+        <v>1000</v>
+      </c>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>50</v>
+      </c>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9">
+        <v>0.9</v>
+      </c>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="P15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>